--- a/pred_ohlcv/54_21/2019-11-20 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ZIL ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>1526557.471957344</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1526622.471957344</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1495719.244957344</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1448462.580857344</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1448527.580857344</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1989184.528857344</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1985632.798157344</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1980591.735857344</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1991503.063057344</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2062583.716857344</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2267268.493957344</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2348622.027838953</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2750964.047838953</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2888943.880738953</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>6138067.039456639</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>6114028.616556638</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>6085085.514456638</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6081696.359256638</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>5937797.672356638</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>5937179.523756638</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6381883.836156638</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6425907.933856638</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6299309.892456638</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6461411.992456638</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>6450283.641614455</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>6366587.656414455</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>6013765.725014455</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>5867756.971014455</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>6023505.080014455</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5919065.225514455</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7357251.121821444</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>7357323.300721443</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>7360781.327221443</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>7747488.868821443</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>9052951.966582099</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9351910.459082099</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>9258115.541182099</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>8854028.414082099</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8889154.036082098</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>8878488.924182098</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>8731533.022882098</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7750741.195482098</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7630375.797882099</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7390522.340282098</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7380400.402082099</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>7335351.421282099</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7339720.547882099</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7339387.400782099</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7411904.128782099</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>7435819.618282099</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7435519.681882099</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>7490118.1136821</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>7490052.1136821</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>7489920.1136821</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>7404376.4429821</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>7235696.123182099</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>7235459.436782099</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6339358.447782099</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>8993647.605282098</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>8689759.770882098</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>8630593.432779383</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>9111493.239679383</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>9152635.963679383</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>9152575.963679383</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>9585818.833079383</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>9252996.523679383</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>9219754.866879383</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>9463948.598179383</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1782465.669698312</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1839796.57146344</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1227716.21456344</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1385585.487398311</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1208663.806898311</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1209718.826298311</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1043889.343598311</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1043960.443398311</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1044790.443398311</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>937103.401798311</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>937103.401798311</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>950227.504898311</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>908155.755998311</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>908155.755998311</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>981724.2966983109</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>982424.6668983109</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>985691.1632983108</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>985533.4782983108</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ZIL ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>1526557.471957344</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1526622.471957344</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1495719.244957344</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1448462.580857344</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1448527.580857344</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1411923.642057344</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1989184.528857344</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1985632.798157344</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1980591.735857344</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1992595.547157344</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1991503.063057344</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1993673.298557344</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2251652.333057344</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2062340.716857344</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2062583.716857344</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2267268.493957344</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2348622.027838953</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2750964.047838953</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2888943.880738953</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>6508357.925756639</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>6138067.039456639</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>6307313.527056638</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>6114028.616556638</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>6085085.514456638</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>6081696.359256638</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>5937797.672356638</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>5937179.523756638</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6381883.836156638</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6425907.933856638</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6299309.892456638</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>6484582.105656638</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6461411.992456638</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6465090.352914454</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>6450283.641614455</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>6422768.874414455</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>6366587.656414455</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>6013765.725014455</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>5867756.971014455</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7357251.121821444</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>7357323.300721443</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>7360781.327221443</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>7747488.868821443</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>9052951.966582099</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9351910.459082099</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8889154.036082098</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>8878488.924182098</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>8891506.570382098</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>7625747.097982098</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7390522.340282098</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7380400.402082099</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>7335351.421282099</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7339720.547882099</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7339387.400782099</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7411904.128782099</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>7435819.618282099</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7435519.681882099</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>7435369.713682099</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>7490118.1136821</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>7490052.1136821</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>7489920.1136821</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>7404376.4429821</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>7235696.123182099</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>7235459.436782099</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6339358.447782099</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>9234466.316679383</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>9111493.239679383</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>9152635.963679383</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>9152575.963679383</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>9093519.461279383</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>9419226.658879383</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>9694714.318479383</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>9219754.866879383</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>9463948.598179383</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>9455075.115779383</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1781065.669698312</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1782465.669698312</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1789796.57146344</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1839796.57146344</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1247864.32776344</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1247664.32776344</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1227645.21416344</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1227716.21456344</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1351151.140698312</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1396706.140698312</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1194109.157498311</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1190314.712498311</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1185561.712498311</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1264966.021198311</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1330021.497998311</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1388169.162798311</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1388834.263298311</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1385585.487398311</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1208663.806898311</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1209718.826298311</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1043889.343598311</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1043960.443398311</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1044790.443398311</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>937026.290598311</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>937103.401798311</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>937103.401798311</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>936913.401798311</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>950227.504898311</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>908155.755998311</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>908155.755998311</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>1014576.391098311</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1014375.890898311</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>981724.2966983109</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>982424.6668983109</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>985691.1632983108</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>985533.4782983108</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
